--- a/reference/リソース別のUUID確認リスト.xlsx
+++ b/reference/リソース別のUUID確認リスト.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696F5DA0-6BB5-D946-BA29-8532BC0A4882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75253074-F516-8D43-943B-698A1889B24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2480" yWindow="500" windowWidth="25760" windowHeight="17060" xr2:uid="{4FA07651-3F93-7249-BA9F-55819FB395C4}"/>
   </bookViews>
@@ -742,7 +742,7 @@
   <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
